--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.0290135621613</v>
+        <v>1579.42962521187</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.94333144582801</v>
+        <v>5.315063262079851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.94333144582801</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.54999999999541</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>22.82218000304263</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>25.92773953394843</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.79579898937524</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.17507627316045</v>
+        <v>38.42062279298568</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.51205161108313</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,155 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.505</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.055</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0099999999993</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7849999999993</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8049999999993</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3099999999993</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9949999999993</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.985</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.165</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.63</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.41</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.505</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.055</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999999172</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049999999992849</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054999999999239</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.165000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1955,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,10 +2224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2095,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2106,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2117,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2128,12 +2268,78 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
